--- a/data/trans_bre/P20D2_R_2023-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P20D2_R_2023-Dificultad-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-26.06157893340415</v>
+        <v>-26.06157893340414</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-0.4659726410028397</v>
+        <v>-0.4659726410028396</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-58.87792743737709</v>
+        <v>-58.33258206550742</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.8640616796136813</v>
+        <v>-0.8497676750246699</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.6219232577941</v>
+        <v>10.78081136382355</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.3051983132082799</v>
+        <v>0.3372520408698791</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-22.22191288764908</v>
+        <v>-22.22191288764909</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.2867400931267821</v>
+        <v>-0.2867400931267822</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-47.67882865110623</v>
+        <v>-45.91045957155668</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5407224302811078</v>
+        <v>-0.5240503031563333</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.30754122489039</v>
+        <v>7.497094963227208</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1129398715186587</v>
+        <v>0.1234884165924837</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-51.37379487791009</v>
+        <v>-51.37379487791007</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-0.6385192315441079</v>
+        <v>-0.6385192315441077</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-75.26046694826178</v>
+        <v>-74.83734220495403</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.8389061350991577</v>
+        <v>-0.8518640588165057</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-19.81482705840664</v>
+        <v>-19.85879061651491</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>-0.2855039976859798</v>
+        <v>-0.3197193077876403</v>
       </c>
     </row>
     <row r="13">
@@ -693,7 +693,7 @@
         <v>-36.70870472496313</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.4512460107936977</v>
+        <v>-0.4512460107936978</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-63.89221037786824</v>
+        <v>-65.97852221178691</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7549383482286207</v>
+        <v>-0.7642241347725756</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.730914926604473</v>
+        <v>5.391321298919632</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.07649932727838535</v>
+        <v>0.08714864351986361</v>
       </c>
     </row>
     <row r="16">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-32.94164957800901</v>
+        <v>-32.94164957800902</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>-0.4452040569045944</v>
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-48.16772567848923</v>
+        <v>-47.01843963577044</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.6072600128927653</v>
+        <v>-0.6056823979337428</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-14.5256631873701</v>
+        <v>-14.62602979747592</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>-0.2152864130470114</v>
+        <v>-0.2229182583838461</v>
       </c>
     </row>
     <row r="19">
